--- a/Input/Input data.xlsx
+++ b/Input/Input data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moksline veikla\Straipsniu rasymas\Autonomous_vehicles_influence\Simuliacija\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F8B360-2B86-4810-8ABA-F57EED7B02C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8861ACE6-E644-42E0-A026-44FCA0C08CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-4356" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
